--- a/client/bot_settings.xlsx
+++ b/client/bot_settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9612"/>
+    <workbookView windowWidth="19200" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Settings</t>
   </si>
@@ -79,10 +79,16 @@
     <t>API key</t>
   </si>
   <si>
+    <t>OrILPm6z91D1zvSuoAKmbWll7xMnVsmKBUl6FdCU3PHEb1s8NowgntHKqMZ01MTJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Your Exchange API key </t>
   </si>
   <si>
     <t>API secret</t>
+  </si>
+  <si>
+    <t>LuKsP4cHLlMPs8ZFxhlFGD2APBM4WvSQS4gPsgJRIPZnXBUn3bSxyikCuMQX5n5x</t>
   </si>
   <si>
     <t>Your Exchange API secret</t>
@@ -103,12 +109,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -125,13 +131,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -140,17 +139,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,26 +170,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,34 +186,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,36 +262,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -290,31 +296,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,145 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,39 +481,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,6 +495,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +547,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -580,148 +586,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -747,54 +753,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1066,14 +1072,14 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="107.111111111111" customWidth="1"/>
+    <col min="1" max="1" width="25.1083333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.775" customWidth="1"/>
+    <col min="3" max="3" width="107.108333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1127,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1159,7 +1165,9 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8"/>
+      <c r="B8">
+        <v>6152131065</v>
+      </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
@@ -1179,34 +1187,41 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18"/>
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>272006</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
